--- a/media/reports/oto_trifaz.xlsx
+++ b/media/reports/oto_trifaz.xlsx
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>7</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="1019175" cy="1162050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -899,12 +899,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>107</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8839200" cy="5381625"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -912,6 +912,56 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="323850" cy="2952750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8839200" cy="5381625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -932,11 +982,11 @@
     <ext cx="752475" cy="809625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1242,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1294,7 +1344,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44317.87766377256</v>
+        <v>44318.52028092411</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1341,7 +1391,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>2.024 kg</t>
+          <t>681.62 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1390,7 +1440,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>240.0 x 118.0 x 200.0</t>
+          <t>999.0 x 118.0 x 202.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1464,7 +1514,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>14.052 kg (Hazır Sac)</t>
+          <t>180.18 kg (Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1491,7 +1541,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:2.024 //  Cu:0.0kg</t>
+          <t>Al:681.62 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1533,7 +1583,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>440.0 V ( 440.3183V )</t>
+          <t>555.0 V ( 554.9072V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
@@ -1542,7 +1592,7 @@
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>2 NOLU KADEME:</t>
+          <t>3 NOLU KADEME:</t>
         </is>
       </c>
       <c r="J11" s="1" t="n"/>
@@ -1577,7 +1627,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1595,7 +1645,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>12</v>
+        <v>158.1361725123519</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1615,7 +1665,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>19.2</v>
+        <v>253.0178760197631</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1635,7 +1685,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1653,7 +1703,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>10.73718</v>
+        <v>530.5602360000001</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1686,13 +1736,15 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="24" t="n"/>
+      <c r="B19" s="84" t="n">
+        <v>0.9</v>
+      </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>415 sp</t>
+          <t>523 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
@@ -1708,7 +1760,9 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="26" t="n"/>
+      <c r="B20" s="84" t="n">
+        <v>0.9113251633834175</v>
+      </c>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
@@ -1724,12 +1778,12 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="84" t="inlineStr">
-        <is>
-          <t>4.0x3.0</t>
-        </is>
-      </c>
-      <c r="C21" s="24" t="n"/>
+      <c r="B21" s="24" t="n"/>
+      <c r="C21" s="84" t="inlineStr">
+        <is>
+          <t>12.5x9.0</t>
+        </is>
+      </c>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
       <c r="I21" s="23" t="n"/>
@@ -1744,10 +1798,10 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="84" t="n">
-        <v>0.347884632</v>
-      </c>
-      <c r="C22" s="26" t="n"/>
+      <c r="B22" s="26" t="n"/>
+      <c r="C22" s="84" t="n">
+        <v>161.1576716850001</v>
+      </c>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
       <c r="I22" s="23" t="n"/>
@@ -1764,7 +1818,11 @@
       </c>
       <c r="B23" s="24" t="n"/>
       <c r="C23" s="24" t="n"/>
-      <c r="D23" s="24" t="n"/>
+      <c r="D23" s="84" t="inlineStr">
+        <is>
+          <t>90.0x0.5</t>
+        </is>
+      </c>
       <c r="E23" s="24" t="n"/>
       <c r="I23" s="23" t="n"/>
       <c r="J23" s="24" t="n"/>
@@ -1780,7 +1838,9 @@
       </c>
       <c r="B24" s="26" t="n"/>
       <c r="C24" s="26" t="n"/>
-      <c r="D24" s="26" t="n"/>
+      <c r="D24" s="84" t="n">
+        <v>64.46306867400001</v>
+      </c>
       <c r="E24" s="26" t="n"/>
       <c r="I24" s="23" t="n"/>
       <c r="J24" s="26" t="n"/>
@@ -1800,7 +1860,7 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>400.0 V ( 400.0V )</t>
+          <t>440.0 V ( 440.3183V )</t>
         </is>
       </c>
       <c r="I25" s="23" t="n"/>
@@ -1813,7 +1873,7 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="81" t="inlineStr">
         <is>
-          <t>1 NOLU KADEME:</t>
+          <t>2 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1896,7 @@
         </is>
       </c>
       <c r="B28" s="83" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
@@ -1846,7 +1906,7 @@
         </is>
       </c>
       <c r="B29" s="83" t="n">
-        <v>1.327322896141688</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
@@ -1856,7 +1916,7 @@
         </is>
       </c>
       <c r="B30" s="83" t="n">
-        <v>2.1237166338267</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
@@ -1866,7 +1926,7 @@
         </is>
       </c>
       <c r="B31" s="83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -1876,7 +1936,7 @@
         </is>
       </c>
       <c r="B32" s="83" t="n">
-        <v>91.140114</v>
+        <v>10.73718</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
@@ -1893,12 +1953,9 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B34" s="84" t="n">
-        <v>1.3</v>
-      </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>377 sp</t>
+          <t>415 sp</t>
         </is>
       </c>
     </row>
@@ -1908,9 +1965,6 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B35" s="84" t="n">
-        <v>0.3266253721867416</v>
-      </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="82" t="inlineStr">
@@ -1918,6 +1972,11 @@
           <t>Kare Tel :</t>
         </is>
       </c>
+      <c r="B36" s="84" t="inlineStr">
+        <is>
+          <t>4.0x3.0</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="inlineStr">
@@ -1925,6 +1984,9 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
+      <c r="B37" s="84" t="n">
+        <v>0.347884632</v>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="82" t="inlineStr">
@@ -1946,22 +2008,149 @@
           <t>Kapton :</t>
         </is>
       </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1"/>
-    <row r="42" ht="15" customHeight="1" thickBot="1"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
+      <c r="G40" s="17" t="inlineStr">
+        <is>
+          <t>400.0 V ( 400.0V )</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="81" t="inlineStr">
+        <is>
+          <t>1 NOLU KADEME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="82" t="inlineStr">
+        <is>
+          <t>Tel :</t>
+        </is>
+      </c>
+      <c r="B42" s="83" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="82" t="inlineStr">
+        <is>
+          <t>Cap :</t>
+        </is>
+      </c>
+      <c r="B43" s="83" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="82" t="inlineStr">
+        <is>
+          <t>Kesit :</t>
+        </is>
+      </c>
+      <c r="B44" s="83" t="n">
+        <v>1.327322896141688</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="82" t="inlineStr">
+        <is>
+          <t>Akim :</t>
+        </is>
+      </c>
+      <c r="B45" s="83" t="n">
+        <v>2.1237166338267</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="82" t="inlineStr">
+        <is>
+          <t>Kat :</t>
+        </is>
+      </c>
+      <c r="B46" s="83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="82" t="inlineStr">
+        <is>
+          <t>Uzunluk :</t>
+        </is>
+      </c>
+      <c r="B47" s="83" t="n">
+        <v>91.140114</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="83" t="inlineStr"/>
+      <c r="C48" s="82" t="inlineStr">
+        <is>
+          <t>-- Teller --</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="82" t="inlineStr">
+        <is>
+          <t>Yuv. Tel :</t>
+        </is>
+      </c>
+      <c r="B49" s="84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G49" s="17" t="inlineStr">
+        <is>
+          <t>377 sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="82" t="inlineStr">
+        <is>
+          <t>Ytel Agr :</t>
+        </is>
+      </c>
+      <c r="B50" s="84" t="n">
+        <v>0.3266253721867416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="82" t="inlineStr">
+        <is>
+          <t>Kare Tel :</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="82" t="inlineStr">
+        <is>
+          <t>Ktel Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="82" t="inlineStr">
+        <is>
+          <t>Folyo :</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="82" t="inlineStr">
+        <is>
+          <t>Folyo Agr :</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="82" t="inlineStr">
+        <is>
+          <t>Kapton :</t>
+        </is>
+      </c>
+    </row>
     <row r="56"/>
     <row r="57"/>
     <row r="58"/>
@@ -1970,298 +2159,268 @@
     <row r="61"/>
     <row r="62"/>
     <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94">
-      <c r="B94" s="34" t="inlineStr">
+    <row r="64">
+      <c r="B64" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
         </is>
       </c>
-      <c r="C94" s="35" t="n"/>
-      <c r="D94" s="35" t="n"/>
-      <c r="E94" s="35" t="n"/>
-      <c r="F94" s="35" t="n"/>
-      <c r="G94" s="15" t="n"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="85" t="inlineStr">
+      <c r="C64" s="35" t="n"/>
+      <c r="D64" s="35" t="n"/>
+      <c r="E64" s="35" t="n"/>
+      <c r="F64" s="35" t="n"/>
+      <c r="G64" s="15" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="85" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C95" s="46" t="n"/>
-      <c r="D95" s="46" t="n"/>
-      <c r="E95" s="48" t="n"/>
-      <c r="F95" s="7" t="inlineStr">
+      <c r="C65" s="46" t="n"/>
+      <c r="D65" s="46" t="n"/>
+      <c r="E65" s="48" t="n"/>
+      <c r="F65" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G95" s="8" t="inlineStr">
+      <c r="G65" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ekran </t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="B96" s="86" t="n">
+    <row r="66">
+      <c r="B66" s="86" t="n">
         <v>0.19</v>
       </c>
-      <c r="C96" s="46" t="n"/>
-      <c r="D96" s="46" t="n"/>
-      <c r="E96" s="87" t="n"/>
-      <c r="F96" s="18" t="n">
+      <c r="C66" s="46" t="n"/>
+      <c r="D66" s="46" t="n"/>
+      <c r="E66" s="87" t="n"/>
+      <c r="F66" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="G96" s="19" t="inlineStr">
+      <c r="G66" s="19" t="inlineStr">
+        <is>
+          <t>Ø : 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VA Kademe </t>
+        </is>
+      </c>
+      <c r="C67" s="46" t="n"/>
+      <c r="D67" s="46" t="n"/>
+      <c r="E67" s="48" t="n"/>
+      <c r="F67" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>Ekstra</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VA Kademe </t>
-        </is>
-      </c>
-      <c r="C97" s="46" t="n"/>
-      <c r="D97" s="46" t="n"/>
-      <c r="E97" s="48" t="n"/>
-      <c r="F97" s="7" t="inlineStr">
+      <c r="C68" s="46" t="n"/>
+      <c r="D68" s="46" t="n"/>
+      <c r="E68" s="87" t="n"/>
+      <c r="F68" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G68" s="19" t="inlineStr">
+        <is>
+          <t>Deger: 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="85" t="inlineStr">
+        <is>
+          <t>Primer-Sekonder</t>
+        </is>
+      </c>
+      <c r="C69" s="46" t="n"/>
+      <c r="D69" s="46" t="n"/>
+      <c r="E69" s="48" t="n"/>
+      <c r="F69" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
         </is>
       </c>
-      <c r="G97" s="8" t="inlineStr">
-        <is>
-          <t>Ekstra</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="86" t="inlineStr">
+      <c r="G69" s="8" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C98" s="46" t="n"/>
-      <c r="D98" s="46" t="n"/>
-      <c r="E98" s="87" t="n"/>
-      <c r="F98" s="18" t="inlineStr">
+      <c r="C70" s="46" t="n"/>
+      <c r="D70" s="46" t="n"/>
+      <c r="E70" s="87" t="n"/>
+      <c r="F70" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G98" s="19" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="85" t="inlineStr">
-        <is>
-          <t>Primer-Sekonder</t>
-        </is>
-      </c>
-      <c r="C99" s="46" t="n"/>
-      <c r="D99" s="46" t="n"/>
-      <c r="E99" s="48" t="n"/>
-      <c r="F99" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G99" s="8" t="n"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C100" s="46" t="n"/>
-      <c r="D100" s="46" t="n"/>
-      <c r="E100" s="87" t="n"/>
-      <c r="F100" s="20" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G100" s="16" t="n"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="34" t="inlineStr">
+      <c r="G70" s="16" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C101" s="35" t="n"/>
-      <c r="D101" s="35" t="n"/>
-      <c r="E101" s="35" t="n"/>
-      <c r="F101" s="35" t="n"/>
-      <c r="G101" s="35" t="n"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="7" t="inlineStr">
+      <c r="C71" s="35" t="n"/>
+      <c r="D71" s="35" t="n"/>
+      <c r="E71" s="35" t="n"/>
+      <c r="F71" s="35" t="n"/>
+      <c r="G71" s="35" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C102" s="7" t="inlineStr">
+      <c r="C72" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D102" s="7" t="inlineStr">
+      <c r="D72" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E102" s="7" t="inlineStr">
+      <c r="E72" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F102" s="7" t="inlineStr">
+      <c r="F72" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G102" s="8" t="inlineStr">
+      <c r="G72" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="B103" s="28" t="inlineStr">
-        <is>
-          <t>120.0 mm</t>
-        </is>
-      </c>
-      <c r="C103" s="29" t="inlineStr">
-        <is>
-          <t>101.0 mm</t>
-        </is>
-      </c>
-      <c r="D103" s="29" t="inlineStr">
+    <row r="73">
+      <c r="B73" s="28" t="inlineStr">
+        <is>
+          <t>260.0 mm</t>
+        </is>
+      </c>
+      <c r="C73" s="29" t="inlineStr">
+        <is>
+          <t>999.0 mm</t>
+        </is>
+      </c>
+      <c r="D73" s="29" t="inlineStr">
+        <is>
+          <t>218.0 mm</t>
+        </is>
+      </c>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="30" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="34" t="inlineStr">
+        <is>
+          <t>TRAFO ÖLÇÜLERİ (mm)</t>
+        </is>
+      </c>
+      <c r="C74" s="35" t="n"/>
+      <c r="D74" s="35" t="n"/>
+      <c r="E74" s="35" t="n"/>
+      <c r="F74" s="35" t="n"/>
+      <c r="G74" s="35" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F75" s="7" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G75" s="8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="28" t="inlineStr">
+        <is>
+          <t>999.0 mm</t>
+        </is>
+      </c>
+      <c r="C76" s="29" t="inlineStr">
         <is>
           <t>118.0 mm</t>
         </is>
       </c>
-      <c r="E103" s="29" t="inlineStr"/>
-      <c r="F103" s="29" t="inlineStr"/>
-      <c r="G103" s="30" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="34" t="inlineStr">
-        <is>
-          <t>TRAFO ÖLÇÜLERİ (mm)</t>
-        </is>
-      </c>
-      <c r="C104" s="35" t="n"/>
-      <c r="D104" s="35" t="n"/>
-      <c r="E104" s="35" t="n"/>
-      <c r="F104" s="35" t="n"/>
-      <c r="G104" s="35" t="n"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C105" s="7" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D105" s="7" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E105" s="7" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F105" s="7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="G105" s="8" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="28" t="inlineStr">
-        <is>
-          <t>240.0 mm</t>
-        </is>
-      </c>
-      <c r="C106" s="29" t="inlineStr">
-        <is>
-          <t>118.0 mm</t>
-        </is>
-      </c>
-      <c r="D106" s="29" t="inlineStr">
-        <is>
-          <t>200.0 mm</t>
-        </is>
-      </c>
-      <c r="E106" s="29" t="inlineStr">
-        <is>
-          <t>200.0 mm</t>
-        </is>
-      </c>
-      <c r="F106" s="29" t="inlineStr">
+      <c r="D76" s="29" t="inlineStr">
+        <is>
+          <t>202.0 mm</t>
+        </is>
+      </c>
+      <c r="E76" s="29" t="inlineStr">
+        <is>
+          <t>999.0 mm</t>
+        </is>
+      </c>
+      <c r="F76" s="29" t="inlineStr">
         <is>
           <t>94.0 mm</t>
         </is>
       </c>
-      <c r="G106" s="30" t="inlineStr">
+      <c r="G76" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2286,14 +2445,15 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2398,9 +2558,19 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
-      <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>H010010X90AET</t>
+        </is>
+      </c>
+      <c r="C5" s="42" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="D5" s="42" t="n">
+        <v>0.9113251633834175</v>
+      </c>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2408,9 +2578,19 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
-      <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>125X9YSAPFI</t>
+        </is>
+      </c>
+      <c r="C6" s="42" t="inlineStr">
+        <is>
+          <t>12.5x9.0</t>
+        </is>
+      </c>
+      <c r="D6" s="42" t="n">
+        <v>161.1576716850001</v>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2418,9 +2598,19 @@
       <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="n"/>
-      <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="B7" s="42" t="inlineStr">
+        <is>
+          <t>H0109ALR50900</t>
+        </is>
+      </c>
+      <c r="C7" s="42" t="inlineStr">
+        <is>
+          <t>90.0x0.5</t>
+        </is>
+      </c>
+      <c r="D7" s="42" t="n">
+        <v>64.46306867400001</v>
+      </c>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>

--- a/media/reports/oto_trifaz.xlsx
+++ b/media/reports/oto_trifaz.xlsx
@@ -849,12 +849,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1019175" cy="1162050"/>
+    <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -876,7 +876,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="323850" cy="2952750"/>
@@ -899,12 +899,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>62</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="323850" cy="2952750"/>
+    <ext cx="8839200" cy="5381625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -912,56 +912,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="323850" cy="2952750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>77</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8839200" cy="5381625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -982,11 +932,11 @@
     <ext cx="752475" cy="809625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1292,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
@@ -1344,7 +1294,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44318.52028092411</v>
+        <v>44319.63513741505</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1391,7 +1341,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>681.62 kg</t>
+          <t>2.024 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1430,7 +1380,11 @@
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr"/>
+      <c r="H4" s="73" t="inlineStr">
+        <is>
+          <t>1.378 kg</t>
+        </is>
+      </c>
       <c r="I4" s="51" t="n"/>
       <c r="J4" s="76" t="inlineStr">
         <is>
@@ -1440,7 +1394,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>999.0 x 118.0 x 202.0</t>
+          <t>242.0 x 118.0 x 202.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1504,7 +1458,11 @@
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr"/>
+      <c r="H6" s="73" t="inlineStr">
+        <is>
+          <t>1.48 kg</t>
+        </is>
+      </c>
       <c r="I6" s="51" t="n"/>
       <c r="J6" s="76" t="inlineStr">
         <is>
@@ -1514,7 +1472,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>180.18 kg (Kesme Sac)</t>
+          <t>14.052 kg (Hazır Sac)</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1541,7 +1499,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:681.62 //  Cu:0.0kg</t>
+          <t>Al:2.024 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1583,7 +1541,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>555.0 V ( 554.9072V )</t>
+          <t>440.0 V ( 440.3183V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
@@ -1592,7 +1550,7 @@
     <row r="11">
       <c r="A11" s="81" t="inlineStr">
         <is>
-          <t>3 NOLU KADEME:</t>
+          <t>2 NOLU KADEME:</t>
         </is>
       </c>
       <c r="J11" s="1" t="n"/>
@@ -1627,7 +1585,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1645,7 +1603,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>158.1361725123519</v>
+        <v>12</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1665,7 +1623,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>253.0178760197631</v>
+        <v>19.2</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1685,7 +1643,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1703,7 +1661,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>530.5602360000001</v>
+        <v>10.73718</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1736,15 +1694,13 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="84" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>523 sp</t>
+          <t>415 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
@@ -1760,9 +1716,7 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="84" t="n">
-        <v>0.9113251633834175</v>
-      </c>
+      <c r="B20" s="26" t="n"/>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
@@ -1778,12 +1732,12 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="24" t="n"/>
-      <c r="C21" s="84" t="inlineStr">
-        <is>
-          <t>12.5x9.0</t>
-        </is>
-      </c>
+      <c r="B21" s="84" t="inlineStr">
+        <is>
+          <t>4.0x3.0</t>
+        </is>
+      </c>
+      <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
       <c r="I21" s="23" t="n"/>
@@ -1798,10 +1752,10 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="26" t="n"/>
-      <c r="C22" s="84" t="n">
-        <v>161.1576716850001</v>
-      </c>
+      <c r="B22" s="84" t="n">
+        <v>0.347884632</v>
+      </c>
+      <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
       <c r="I22" s="23" t="n"/>
@@ -1818,11 +1772,7 @@
       </c>
       <c r="B23" s="24" t="n"/>
       <c r="C23" s="24" t="n"/>
-      <c r="D23" s="84" t="inlineStr">
-        <is>
-          <t>90.0x0.5</t>
-        </is>
-      </c>
+      <c r="D23" s="24" t="n"/>
       <c r="E23" s="24" t="n"/>
       <c r="I23" s="23" t="n"/>
       <c r="J23" s="24" t="n"/>
@@ -1838,9 +1788,7 @@
       </c>
       <c r="B24" s="26" t="n"/>
       <c r="C24" s="26" t="n"/>
-      <c r="D24" s="84" t="n">
-        <v>64.46306867400001</v>
-      </c>
+      <c r="D24" s="26" t="n"/>
       <c r="E24" s="26" t="n"/>
       <c r="I24" s="23" t="n"/>
       <c r="J24" s="26" t="n"/>
@@ -1860,7 +1808,7 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>440.0 V ( 440.3183V )</t>
+          <t>400.0 V ( 400.0V )</t>
         </is>
       </c>
       <c r="I25" s="23" t="n"/>
@@ -1873,7 +1821,7 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="81" t="inlineStr">
         <is>
-          <t>2 NOLU KADEME:</t>
+          <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1844,7 @@
         </is>
       </c>
       <c r="B28" s="83" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
@@ -1906,7 +1854,7 @@
         </is>
       </c>
       <c r="B29" s="83" t="n">
-        <v>12</v>
+        <v>1.327322896141688</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
@@ -1916,7 +1864,7 @@
         </is>
       </c>
       <c r="B30" s="83" t="n">
-        <v>19.2</v>
+        <v>2.1237166338267</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
@@ -1926,7 +1874,7 @@
         </is>
       </c>
       <c r="B31" s="83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -1936,7 +1884,7 @@
         </is>
       </c>
       <c r="B32" s="83" t="n">
-        <v>10.73718</v>
+        <v>91.140114</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
@@ -1953,9 +1901,12 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
+      <c r="B34" s="84" t="n">
+        <v>1.3</v>
+      </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>415 sp</t>
+          <t>377 sp</t>
         </is>
       </c>
     </row>
@@ -1965,6 +1916,9 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
+      <c r="B35" s="84" t="n">
+        <v>0.3266253721867416</v>
+      </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="82" t="inlineStr">
@@ -1972,11 +1926,6 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B36" s="84" t="inlineStr">
-        <is>
-          <t>4.0x3.0</t>
-        </is>
-      </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="inlineStr">
@@ -1984,9 +1933,6 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B37" s="84" t="n">
-        <v>0.347884632</v>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="82" t="inlineStr">
@@ -2008,419 +1954,277 @@
           <t>Kapton :</t>
         </is>
       </c>
-      <c r="G40" s="17" t="inlineStr">
-        <is>
-          <t>400.0 V ( 400.0V )</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="81" t="inlineStr">
-        <is>
-          <t>1 NOLU KADEME:</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="82" t="inlineStr">
-        <is>
-          <t>Tel :</t>
-        </is>
-      </c>
-      <c r="B42" s="83" t="inlineStr">
-        <is>
-          <t>Al</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="82" t="inlineStr">
-        <is>
-          <t>Cap :</t>
-        </is>
-      </c>
-      <c r="B43" s="83" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="82" t="inlineStr">
-        <is>
-          <t>Kesit :</t>
-        </is>
-      </c>
-      <c r="B44" s="83" t="n">
-        <v>1.327322896141688</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="82" t="inlineStr">
-        <is>
-          <t>Akim :</t>
-        </is>
-      </c>
-      <c r="B45" s="83" t="n">
-        <v>2.1237166338267</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="82" t="inlineStr">
-        <is>
-          <t>Kat :</t>
-        </is>
-      </c>
-      <c r="B46" s="83" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="82" t="inlineStr">
-        <is>
-          <t>Uzunluk :</t>
-        </is>
-      </c>
-      <c r="B47" s="83" t="n">
-        <v>91.140114</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="83" t="inlineStr"/>
-      <c r="C48" s="82" t="inlineStr">
-        <is>
-          <t>-- Teller --</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1"/>
+    <row r="42" ht="15" customHeight="1" thickBot="1"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
     <row r="49">
-      <c r="A49" s="82" t="inlineStr">
-        <is>
-          <t>Yuv. Tel :</t>
-        </is>
-      </c>
-      <c r="B49" s="84" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G49" s="17" t="inlineStr">
-        <is>
-          <t>377 sp</t>
-        </is>
-      </c>
+      <c r="B49" s="34" t="inlineStr">
+        <is>
+          <t>IZOLASYON DEGERLERI</t>
+        </is>
+      </c>
+      <c r="C49" s="35" t="n"/>
+      <c r="D49" s="35" t="n"/>
+      <c r="E49" s="35" t="n"/>
+      <c r="F49" s="35" t="n"/>
+      <c r="G49" s="15" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="82" t="inlineStr">
-        <is>
-          <t>Ytel Agr :</t>
-        </is>
-      </c>
-      <c r="B50" s="84" t="n">
-        <v>0.3266253721867416</v>
+      <c r="B50" s="85" t="inlineStr">
+        <is>
+          <t>Primer Kademe</t>
+        </is>
+      </c>
+      <c r="C50" s="46" t="n"/>
+      <c r="D50" s="46" t="n"/>
+      <c r="E50" s="48" t="n"/>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekran </t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="82" t="inlineStr">
-        <is>
-          <t>Kare Tel :</t>
+      <c r="B51" s="86" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C51" s="46" t="n"/>
+      <c r="D51" s="46" t="n"/>
+      <c r="E51" s="87" t="n"/>
+      <c r="F51" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="82" t="inlineStr">
-        <is>
-          <t>Ktel Agr :</t>
+      <c r="B52" s="85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VA Kademe </t>
+        </is>
+      </c>
+      <c r="C52" s="46" t="n"/>
+      <c r="D52" s="46" t="n"/>
+      <c r="E52" s="48" t="n"/>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>Ekstra</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="82" t="inlineStr">
-        <is>
-          <t>Folyo :</t>
+      <c r="B53" s="86" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C53" s="46" t="n"/>
+      <c r="D53" s="46" t="n"/>
+      <c r="E53" s="87" t="n"/>
+      <c r="F53" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="G53" s="19" t="inlineStr">
+        <is>
+          <t>Yok</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="82" t="inlineStr">
-        <is>
-          <t>Folyo Agr :</t>
-        </is>
-      </c>
+      <c r="B54" s="85" t="inlineStr">
+        <is>
+          <t>Primer-Sekonder</t>
+        </is>
+      </c>
+      <c r="C54" s="46" t="n"/>
+      <c r="D54" s="46" t="n"/>
+      <c r="E54" s="48" t="n"/>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="82" t="inlineStr">
-        <is>
-          <t>Kapton :</t>
-        </is>
-      </c>
-    </row>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64">
-      <c r="B64" s="34" t="inlineStr">
-        <is>
-          <t>IZOLASYON DEGERLERI</t>
-        </is>
-      </c>
-      <c r="C64" s="35" t="n"/>
-      <c r="D64" s="35" t="n"/>
-      <c r="E64" s="35" t="n"/>
-      <c r="F64" s="35" t="n"/>
-      <c r="G64" s="15" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="85" t="inlineStr">
-        <is>
-          <t>Primer Kademe</t>
-        </is>
-      </c>
-      <c r="C65" s="46" t="n"/>
-      <c r="D65" s="46" t="n"/>
-      <c r="E65" s="48" t="n"/>
-      <c r="F65" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G65" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekran </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C66" s="46" t="n"/>
-      <c r="D66" s="46" t="n"/>
-      <c r="E66" s="87" t="n"/>
-      <c r="F66" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="G66" s="19" t="inlineStr">
-        <is>
-          <t>Ø : 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VA Kademe </t>
-        </is>
-      </c>
-      <c r="C67" s="46" t="n"/>
-      <c r="D67" s="46" t="n"/>
-      <c r="E67" s="48" t="n"/>
-      <c r="F67" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G67" s="8" t="inlineStr">
-        <is>
-          <t>Ekstra</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="86" t="inlineStr">
+      <c r="B55" s="86" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C68" s="46" t="n"/>
-      <c r="D68" s="46" t="n"/>
-      <c r="E68" s="87" t="n"/>
-      <c r="F68" s="18" t="inlineStr">
+      <c r="C55" s="46" t="n"/>
+      <c r="D55" s="46" t="n"/>
+      <c r="E55" s="87" t="n"/>
+      <c r="F55" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="G68" s="19" t="inlineStr">
-        <is>
-          <t>Deger: 0.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="85" t="inlineStr">
-        <is>
-          <t>Primer-Sekonder</t>
-        </is>
-      </c>
-      <c r="C69" s="46" t="n"/>
-      <c r="D69" s="46" t="n"/>
-      <c r="E69" s="48" t="n"/>
-      <c r="F69" s="7" t="inlineStr">
-        <is>
-          <t>Tur</t>
-        </is>
-      </c>
-      <c r="G69" s="8" t="n"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="86" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="C70" s="46" t="n"/>
-      <c r="D70" s="46" t="n"/>
-      <c r="E70" s="87" t="n"/>
-      <c r="F70" s="20" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-      <c r="G70" s="16" t="n"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="34" t="inlineStr">
+      <c r="G55" s="16" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C71" s="35" t="n"/>
-      <c r="D71" s="35" t="n"/>
-      <c r="E71" s="35" t="n"/>
-      <c r="F71" s="35" t="n"/>
-      <c r="G71" s="35" t="n"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="7" t="inlineStr">
+      <c r="C56" s="35" t="n"/>
+      <c r="D56" s="35" t="n"/>
+      <c r="E56" s="35" t="n"/>
+      <c r="F56" s="35" t="n"/>
+      <c r="G56" s="35" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C72" s="7" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D72" s="7" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E72" s="7" t="inlineStr">
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F72" s="7" t="inlineStr">
+      <c r="F57" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G72" s="8" t="inlineStr">
+      <c r="G57" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="28" t="inlineStr">
-        <is>
-          <t>260.0 mm</t>
-        </is>
-      </c>
-      <c r="C73" s="29" t="inlineStr">
-        <is>
-          <t>999.0 mm</t>
-        </is>
-      </c>
-      <c r="D73" s="29" t="inlineStr">
+    <row r="58">
+      <c r="B58" s="28" t="inlineStr">
+        <is>
+          <t>200.0 mm</t>
+        </is>
+      </c>
+      <c r="C58" s="29" t="inlineStr">
+        <is>
+          <t>128.0 mm</t>
+        </is>
+      </c>
+      <c r="D58" s="29" t="inlineStr">
         <is>
           <t>218.0 mm</t>
         </is>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="30" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="34" t="inlineStr">
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="30" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="34" t="inlineStr">
         <is>
           <t>TRAFO ÖLÇÜLERİ (mm)</t>
         </is>
       </c>
-      <c r="C74" s="35" t="n"/>
-      <c r="D74" s="35" t="n"/>
-      <c r="E74" s="35" t="n"/>
-      <c r="F74" s="35" t="n"/>
-      <c r="G74" s="35" t="n"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="7" t="inlineStr">
+      <c r="C59" s="35" t="n"/>
+      <c r="D59" s="35" t="n"/>
+      <c r="E59" s="35" t="n"/>
+      <c r="F59" s="35" t="n"/>
+      <c r="G59" s="35" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="C75" s="7" t="inlineStr">
+      <c r="C60" s="7" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D75" s="7" t="inlineStr">
+      <c r="D60" s="7" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="E75" s="7" t="inlineStr">
+      <c r="E60" s="7" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="F75" s="7" t="inlineStr">
+      <c r="F60" s="7" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="G75" s="8" t="inlineStr">
+      <c r="G60" s="8" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="B76" s="28" t="inlineStr">
-        <is>
-          <t>999.0 mm</t>
-        </is>
-      </c>
-      <c r="C76" s="29" t="inlineStr">
+    <row r="61">
+      <c r="B61" s="28" t="inlineStr">
+        <is>
+          <t>242.0 mm</t>
+        </is>
+      </c>
+      <c r="C61" s="29" t="inlineStr">
         <is>
           <t>118.0 mm</t>
         </is>
       </c>
-      <c r="D76" s="29" t="inlineStr">
+      <c r="D61" s="29" t="inlineStr">
         <is>
           <t>202.0 mm</t>
         </is>
       </c>
-      <c r="E76" s="29" t="inlineStr">
-        <is>
-          <t>999.0 mm</t>
-        </is>
-      </c>
-      <c r="F76" s="29" t="inlineStr">
+      <c r="E61" s="29" t="inlineStr">
+        <is>
+          <t>202.0 mm</t>
+        </is>
+      </c>
+      <c r="F61" s="29" t="inlineStr">
         <is>
           <t>94.0 mm</t>
         </is>
       </c>
-      <c r="G76" s="30" t="inlineStr">
+      <c r="G61" s="30" t="inlineStr">
         <is>
           <t>0.0 mm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2445,15 +2249,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2558,19 +2361,9 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="inlineStr">
-        <is>
-          <t>H010010X90AET</t>
-        </is>
-      </c>
-      <c r="C5" s="42" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="D5" s="42" t="n">
-        <v>0.9113251633834175</v>
-      </c>
+      <c r="B5" s="42" t="n"/>
+      <c r="C5" s="42" t="n"/>
+      <c r="D5" s="42" t="n"/>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2578,19 +2371,9 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="inlineStr">
-        <is>
-          <t>125X9YSAPFI</t>
-        </is>
-      </c>
-      <c r="C6" s="42" t="inlineStr">
-        <is>
-          <t>12.5x9.0</t>
-        </is>
-      </c>
-      <c r="D6" s="42" t="n">
-        <v>161.1576716850001</v>
-      </c>
+      <c r="B6" s="42" t="n"/>
+      <c r="C6" s="42" t="n"/>
+      <c r="D6" s="42" t="n"/>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2598,19 +2381,9 @@
       <c r="A7" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="inlineStr">
-        <is>
-          <t>H0109ALR50900</t>
-        </is>
-      </c>
-      <c r="C7" s="42" t="inlineStr">
-        <is>
-          <t>90.0x0.5</t>
-        </is>
-      </c>
-      <c r="D7" s="42" t="n">
-        <v>64.46306867400001</v>
-      </c>
+      <c r="B7" s="42" t="n"/>
+      <c r="C7" s="42" t="n"/>
+      <c r="D7" s="42" t="n"/>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>

--- a/media/reports/oto_trifaz.xlsx
+++ b/media/reports/oto_trifaz.xlsx
@@ -1294,7 +1294,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="70" t="n">
-        <v>44319.63513741505</v>
+        <v>44320.50381379126</v>
       </c>
       <c r="O1" s="48" t="n"/>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B3" s="71" t="inlineStr">
         <is>
-          <t>15000.0 VA</t>
+          <t>500000.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H3" s="73" t="inlineStr">
         <is>
-          <t>2.024 kg</t>
+          <t>54.23 kg</t>
         </is>
       </c>
       <c r="I3" s="51" t="n"/>
@@ -1353,7 +1353,7 @@
       <c r="K3" s="54" t="n"/>
       <c r="L3" s="75" t="inlineStr">
         <is>
-          <t>40.0 x 60.0 x 114.0</t>
+          <t>80.0 x 210.0 x 300.0</t>
         </is>
       </c>
       <c r="M3" s="53" t="n"/>
@@ -1380,11 +1380,7 @@
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr">
-        <is>
-          <t>1.378 kg</t>
-        </is>
-      </c>
+      <c r="H4" s="73" t="inlineStr"/>
       <c r="I4" s="51" t="n"/>
       <c r="J4" s="76" t="inlineStr">
         <is>
@@ -1394,7 +1390,7 @@
       <c r="K4" s="77" t="n"/>
       <c r="L4" s="78" t="inlineStr">
         <is>
-          <t>242.0 x 118.0 x 202.0</t>
+          <t>539.0 x 324.0 x 474.0</t>
         </is>
       </c>
       <c r="O4" s="77" t="n"/>
@@ -1407,7 +1403,7 @@
       </c>
       <c r="B5" s="71" t="inlineStr">
         <is>
-          <t>0.5 mm</t>
+          <t>0.35 mm</t>
         </is>
       </c>
       <c r="C5" s="72" t="n"/>
@@ -1446,7 +1442,7 @@
       </c>
       <c r="B6" s="71" t="inlineStr">
         <is>
-          <t>11500.0</t>
+          <t>12000.0</t>
         </is>
       </c>
       <c r="C6" s="72" t="n"/>
@@ -1458,11 +1454,7 @@
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr">
-        <is>
-          <t>1.48 kg</t>
-        </is>
-      </c>
+      <c r="H6" s="73" t="inlineStr"/>
       <c r="I6" s="51" t="n"/>
       <c r="J6" s="76" t="inlineStr">
         <is>
@@ -1472,7 +1464,7 @@
       <c r="K6" s="77" t="n"/>
       <c r="L6" s="78" t="inlineStr">
         <is>
-          <t>14.052 kg (Hazır Sac)</t>
+          <t>248.78 kg (Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="77" t="n"/>
@@ -1499,7 +1491,7 @@
       </c>
       <c r="H7" s="73" t="inlineStr">
         <is>
-          <t>Al:2.024 //  Cu:0.0kg</t>
+          <t>Al:54.23 //  Cu:0.0kg</t>
         </is>
       </c>
       <c r="I7" s="51" t="n"/>
@@ -1541,7 +1533,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>440.0 V ( 440.3183V )</t>
+          <t>480.0 V ( 483.6V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
@@ -1585,7 +1577,7 @@
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1603,7 +1595,7 @@
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>12</v>
+        <v>380.132711084365</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1623,7 +1615,7 @@
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>19.2</v>
+        <v>608.212337734984</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1643,7 +1635,7 @@
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1661,7 +1653,7 @@
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>10.73718</v>
+        <v>10.01062</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1694,13 +1686,15 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="24" t="n"/>
+      <c r="B19" s="84" t="n">
+        <v>22</v>
+      </c>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>415 sp</t>
+          <t>62 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
@@ -1716,7 +1710,9 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="26" t="n"/>
+      <c r="B20" s="84" t="n">
+        <v>10.27448312463549</v>
+      </c>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
@@ -1732,11 +1728,7 @@
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="84" t="inlineStr">
-        <is>
-          <t>4.0x3.0</t>
-        </is>
-      </c>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
@@ -1752,9 +1744,7 @@
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="84" t="n">
-        <v>0.347884632</v>
-      </c>
+      <c r="B22" s="26" t="n"/>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
@@ -1808,7 +1798,7 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>400.0 V ( 400.0V )</t>
+          <t>390.0 V ( 390.0V )</t>
         </is>
       </c>
       <c r="I25" s="23" t="n"/>
@@ -1844,7 +1834,7 @@
         </is>
       </c>
       <c r="B28" s="83" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
@@ -1854,7 +1844,7 @@
         </is>
       </c>
       <c r="B29" s="83" t="n">
-        <v>1.327322896141688</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
@@ -1864,7 +1854,7 @@
         </is>
       </c>
       <c r="B30" s="83" t="n">
-        <v>2.1237166338267</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
@@ -1874,7 +1864,7 @@
         </is>
       </c>
       <c r="B31" s="83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
@@ -1884,7 +1874,7 @@
         </is>
       </c>
       <c r="B32" s="83" t="n">
-        <v>91.140114</v>
+        <v>33.99575</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
@@ -1901,12 +1891,9 @@
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B34" s="84" t="n">
-        <v>1.3</v>
-      </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>377 sp</t>
+          <t>50 sp</t>
         </is>
       </c>
     </row>
@@ -1916,9 +1903,6 @@
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B35" s="84" t="n">
-        <v>0.3266253721867416</v>
-      </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="82" t="inlineStr">
@@ -1926,12 +1910,20 @@
           <t>Kare Tel :</t>
         </is>
       </c>
+      <c r="B36" s="84" t="inlineStr">
+        <is>
+          <t>10.0x8.5</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
+      </c>
+      <c r="B37" s="84" t="n">
+        <v>7.802024625</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
@@ -2130,17 +2122,17 @@
     <row r="58">
       <c r="B58" s="28" t="inlineStr">
         <is>
-          <t>200.0 mm</t>
+          <t>460.0 mm</t>
         </is>
       </c>
       <c r="C58" s="29" t="inlineStr">
         <is>
-          <t>128.0 mm</t>
+          <t>332.0 mm</t>
         </is>
       </c>
       <c r="D58" s="29" t="inlineStr">
         <is>
-          <t>218.0 mm</t>
+          <t>418.0 mm</t>
         </is>
       </c>
       <c r="E58" s="29" t="inlineStr"/>
@@ -2194,27 +2186,27 @@
     <row r="61">
       <c r="B61" s="28" t="inlineStr">
         <is>
-          <t>242.0 mm</t>
+          <t>539.0 mm</t>
         </is>
       </c>
       <c r="C61" s="29" t="inlineStr">
         <is>
-          <t>118.0 mm</t>
+          <t>324.0 mm</t>
         </is>
       </c>
       <c r="D61" s="29" t="inlineStr">
         <is>
-          <t>202.0 mm</t>
+          <t>474.0 mm</t>
         </is>
       </c>
       <c r="E61" s="29" t="inlineStr">
         <is>
-          <t>202.0 mm</t>
+          <t>459.0 mm</t>
         </is>
       </c>
       <c r="F61" s="29" t="inlineStr">
         <is>
-          <t>94.0 mm</t>
+          <t>272.0 mm</t>
         </is>
       </c>
       <c r="G61" s="30" t="inlineStr">
@@ -2323,16 +2315,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010011X30AET</t>
+          <t>H010310X85PFI</t>
         </is>
       </c>
       <c r="C3" s="42" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>10.0x8.5</t>
         </is>
       </c>
       <c r="D3" s="42" t="n">
-        <v>0.3266253721867416</v>
+        <v>7.802024625</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2343,16 +2335,12 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>H0101204X30KPAL</t>
-        </is>
-      </c>
-      <c r="C4" s="42" t="inlineStr">
-        <is>
-          <t>4.0x3.0</t>
-        </is>
-      </c>
+          <t>ere</t>
+        </is>
+      </c>
+      <c r="C4" s="42" t="n"/>
       <c r="D4" s="42" t="n">
-        <v>0.347884632</v>
+        <v>10.27448312463549</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>

--- a/media/reports/oto_trifaz.xlsx
+++ b/media/reports/oto_trifaz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -652,25 +652,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -700,37 +718,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1273,17 +1270,17 @@
           <t>Trafo Tipi :</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Oto Trafosu Trifaz Hesap Ozeti</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n"/>
-      <c r="D1" s="46" t="n"/>
-      <c r="E1" s="46" t="n"/>
-      <c r="F1" s="46" t="n"/>
-      <c r="G1" s="46" t="n"/>
-      <c r="H1" s="46" t="n"/>
+      <c r="C1" s="49" t="n"/>
+      <c r="D1" s="49" t="n"/>
+      <c r="E1" s="49" t="n"/>
+      <c r="F1" s="49" t="n"/>
+      <c r="G1" s="49" t="n"/>
+      <c r="H1" s="49" t="n"/>
       <c r="I1" s="11" t="n"/>
       <c r="J1" s="6" t="inlineStr">
         <is>
@@ -1293,31 +1290,31 @@
       <c r="K1" s="27" t="n"/>
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
-      <c r="N1" s="70" t="n">
-        <v>44320.50381379126</v>
-      </c>
-      <c r="O1" s="48" t="n"/>
+      <c r="N1" s="57" t="n">
+        <v>44321.48340685934</v>
+      </c>
+      <c r="O1" s="50" t="n"/>
     </row>
     <row r="2" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A2" s="52" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
         </is>
       </c>
-      <c r="B2" s="46" t="n"/>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="46" t="n"/>
-      <c r="H2" s="46" t="n"/>
-      <c r="I2" s="46" t="n"/>
-      <c r="J2" s="46" t="n"/>
-      <c r="K2" s="46" t="n"/>
-      <c r="L2" s="46" t="n"/>
-      <c r="M2" s="46" t="n"/>
-      <c r="N2" s="46" t="n"/>
-      <c r="O2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="49" t="n"/>
+      <c r="E2" s="49" t="n"/>
+      <c r="F2" s="49" t="n"/>
+      <c r="G2" s="49" t="n"/>
+      <c r="H2" s="49" t="n"/>
+      <c r="I2" s="49" t="n"/>
+      <c r="J2" s="49" t="n"/>
+      <c r="K2" s="49" t="n"/>
+      <c r="L2" s="49" t="n"/>
+      <c r="M2" s="49" t="n"/>
+      <c r="N2" s="49" t="n"/>
+      <c r="O2" s="50" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1325,40 +1322,40 @@
           <t>Güç :</t>
         </is>
       </c>
-      <c r="B3" s="71" t="inlineStr">
-        <is>
-          <t>500000.0 VA</t>
+      <c r="B3" s="52" t="inlineStr">
+        <is>
+          <t>40000.0 VA</t>
         </is>
       </c>
       <c r="C3" s="72" t="n"/>
       <c r="D3" s="72" t="n"/>
       <c r="E3" s="72" t="n"/>
-      <c r="F3" s="51" t="n"/>
+      <c r="F3" s="54" t="n"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Al) :</t>
         </is>
       </c>
-      <c r="H3" s="73" t="inlineStr">
-        <is>
-          <t>54.23 kg</t>
-        </is>
-      </c>
-      <c r="I3" s="51" t="n"/>
-      <c r="J3" s="74" t="inlineStr">
+      <c r="H3" s="53" t="inlineStr">
+        <is>
+          <t>7.303 kg</t>
+        </is>
+      </c>
+      <c r="I3" s="54" t="n"/>
+      <c r="J3" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Karkas Ölçüleri : </t>
         </is>
       </c>
-      <c r="K3" s="54" t="n"/>
-      <c r="L3" s="75" t="inlineStr">
-        <is>
-          <t>80.0 x 210.0 x 300.0</t>
-        </is>
-      </c>
-      <c r="M3" s="53" t="n"/>
-      <c r="N3" s="53" t="n"/>
-      <c r="O3" s="54" t="n"/>
+      <c r="K3" s="60" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
+        <is>
+          <t>50.0 x 90.0 x 143.0</t>
+        </is>
+      </c>
+      <c r="M3" s="59" t="n"/>
+      <c r="N3" s="59" t="n"/>
+      <c r="O3" s="60" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1366,7 +1363,7 @@
           <t>Sac kk :</t>
         </is>
       </c>
-      <c r="B4" s="71" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
@@ -1374,26 +1371,30 @@
       <c r="C4" s="72" t="n"/>
       <c r="D4" s="72" t="n"/>
       <c r="E4" s="72" t="n"/>
-      <c r="F4" s="51" t="n"/>
+      <c r="F4" s="54" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="73" t="inlineStr"/>
-      <c r="I4" s="51" t="n"/>
-      <c r="J4" s="76" t="inlineStr">
+      <c r="H4" s="53" t="inlineStr">
+        <is>
+          <t>14.429 kg</t>
+        </is>
+      </c>
+      <c r="I4" s="54" t="n"/>
+      <c r="J4" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Trafo Ölçüleri : </t>
         </is>
       </c>
-      <c r="K4" s="77" t="n"/>
-      <c r="L4" s="78" t="inlineStr">
-        <is>
-          <t>539.0 x 324.0 x 474.0</t>
-        </is>
-      </c>
-      <c r="O4" s="77" t="n"/>
+      <c r="K4" s="76" t="n"/>
+      <c r="L4" s="77" t="inlineStr">
+        <is>
+          <t>342.0 x 162.0 x 253.0</t>
+        </is>
+      </c>
+      <c r="O4" s="76" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1401,7 +1402,7 @@
           <t>Sac ©</t>
         </is>
       </c>
-      <c r="B5" s="71" t="inlineStr">
+      <c r="B5" s="52" t="inlineStr">
         <is>
           <t>0.35 mm</t>
         </is>
@@ -1409,30 +1410,30 @@
       <c r="C5" s="72" t="n"/>
       <c r="D5" s="72" t="n"/>
       <c r="E5" s="72" t="n"/>
-      <c r="F5" s="51" t="n"/>
+      <c r="F5" s="54" t="n"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H5" s="73" t="inlineStr">
+      <c r="H5" s="53" t="inlineStr">
         <is>
           <t>0.0 kg</t>
         </is>
       </c>
-      <c r="I5" s="51" t="n"/>
-      <c r="J5" s="76" t="inlineStr">
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Klemens &amp; Ayak : </t>
         </is>
       </c>
-      <c r="K5" s="77" t="n"/>
-      <c r="L5" s="78" t="inlineStr">
+      <c r="K5" s="76" t="n"/>
+      <c r="L5" s="77" t="inlineStr">
         <is>
           <t>TRV4M / 25.0 / 18.0 - 84 Kose</t>
         </is>
       </c>
-      <c r="O5" s="77" t="n"/>
+      <c r="O5" s="76" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1440,7 +1441,7 @@
           <t>Gauss :</t>
         </is>
       </c>
-      <c r="B6" s="71" t="inlineStr">
+      <c r="B6" s="52" t="inlineStr">
         <is>
           <t>12000.0</t>
         </is>
@@ -1448,26 +1449,30 @@
       <c r="C6" s="72" t="n"/>
       <c r="D6" s="72" t="n"/>
       <c r="E6" s="72" t="n"/>
-      <c r="F6" s="51" t="n"/>
+      <c r="F6" s="54" t="n"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="73" t="inlineStr"/>
-      <c r="I6" s="51" t="n"/>
-      <c r="J6" s="76" t="inlineStr">
+      <c r="H6" s="53" t="inlineStr">
+        <is>
+          <t>0.0 kg</t>
+        </is>
+      </c>
+      <c r="I6" s="54" t="n"/>
+      <c r="J6" s="75" t="inlineStr">
         <is>
           <t xml:space="preserve">Sac Agirlik : </t>
         </is>
       </c>
-      <c r="K6" s="77" t="n"/>
-      <c r="L6" s="78" t="inlineStr">
-        <is>
-          <t>248.78 kg (Kesme Sac)</t>
-        </is>
-      </c>
-      <c r="O6" s="77" t="n"/>
+      <c r="K6" s="76" t="n"/>
+      <c r="L6" s="77" t="inlineStr">
+        <is>
+          <t>36.48 kg(Kesme Sac)</t>
+        </is>
+      </c>
+      <c r="O6" s="76" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1475,7 +1480,7 @@
           <t>Frekans :</t>
         </is>
       </c>
-      <c r="B7" s="71" t="inlineStr">
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>50.0 Hz</t>
         </is>
@@ -1483,20 +1488,20 @@
       <c r="C7" s="72" t="n"/>
       <c r="D7" s="72" t="n"/>
       <c r="E7" s="72" t="n"/>
-      <c r="F7" s="51" t="n"/>
+      <c r="F7" s="54" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Toplam Agirlik :</t>
         </is>
       </c>
-      <c r="H7" s="73" t="inlineStr">
-        <is>
-          <t>Al:54.23 //  Cu:0.0kg</t>
-        </is>
-      </c>
-      <c r="I7" s="51" t="n"/>
-      <c r="J7" s="79" t="n"/>
-      <c r="K7" s="80" t="n"/>
+      <c r="H7" s="53" t="inlineStr">
+        <is>
+          <t>Al:7.303 //  Cu:0.0kg</t>
+        </is>
+      </c>
+      <c r="I7" s="54" t="n"/>
+      <c r="J7" s="78" t="n"/>
+      <c r="K7" s="79" t="n"/>
       <c r="L7" s="32" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
@@ -1506,41 +1511,41 @@
       <c r="A8" s="1" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="inlineStr">
+      <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
         </is>
       </c>
-      <c r="B9" s="46" t="n"/>
-      <c r="C9" s="46" t="n"/>
-      <c r="D9" s="46" t="n"/>
-      <c r="E9" s="46" t="n"/>
-      <c r="F9" s="46" t="n"/>
-      <c r="G9" s="48" t="n"/>
-      <c r="I9" s="68" t="inlineStr">
+      <c r="B9" s="49" t="n"/>
+      <c r="C9" s="49" t="n"/>
+      <c r="D9" s="49" t="n"/>
+      <c r="E9" s="49" t="n"/>
+      <c r="F9" s="49" t="n"/>
+      <c r="G9" s="50" t="n"/>
+      <c r="I9" s="51" t="inlineStr">
         <is>
           <t>Sekonder</t>
         </is>
       </c>
-      <c r="J9" s="46" t="n"/>
-      <c r="K9" s="46" t="n"/>
-      <c r="L9" s="46" t="n"/>
-      <c r="M9" s="46" t="n"/>
-      <c r="N9" s="46" t="n"/>
-      <c r="O9" s="48" t="n"/>
+      <c r="J9" s="49" t="n"/>
+      <c r="K9" s="49" t="n"/>
+      <c r="L9" s="49" t="n"/>
+      <c r="M9" s="49" t="n"/>
+      <c r="N9" s="49" t="n"/>
+      <c r="O9" s="50" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>480.0 V ( 483.6V )</t>
+          <t>480.0 V ( 478.7565V )</t>
         </is>
       </c>
       <c r="I10" s="1" t="n"/>
       <c r="O10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="inlineStr">
+      <c r="A11" s="80" t="inlineStr">
         <is>
           <t>2 NOLU KADEME:</t>
         </is>
@@ -1551,7 +1556,7 @@
       <c r="M11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="inlineStr">
+      <c r="A12" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
@@ -1571,13 +1576,13 @@
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="82" t="inlineStr">
+      <c r="A13" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
       <c r="B13" s="26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C13" s="21" t="n"/>
       <c r="D13" s="21" t="n"/>
@@ -1589,13 +1594,13 @@
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="82" t="inlineStr">
+      <c r="A14" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
       <c r="B14" s="26" t="n">
-        <v>380.132711084365</v>
+        <v>30</v>
       </c>
       <c r="C14" s="21" t="n"/>
       <c r="D14" s="21" t="n"/>
@@ -1609,13 +1614,13 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="82" t="inlineStr">
+      <c r="A15" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
       <c r="B15" s="26" t="n">
-        <v>608.212337734984</v>
+        <v>48</v>
       </c>
       <c r="C15" s="21" t="n"/>
       <c r="D15" s="21" t="n"/>
@@ -1629,13 +1634,13 @@
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="82" t="inlineStr">
+      <c r="A16" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1647,13 +1652,13 @@
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="82" t="inlineStr">
+      <c r="A17" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>10.01062</v>
+        <v>16.350012</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1665,8 +1670,8 @@
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="83" t="inlineStr"/>
-      <c r="C18" s="82" t="inlineStr">
+      <c r="B18" s="82" t="inlineStr"/>
+      <c r="C18" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1681,20 +1686,18 @@
       <c r="O18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="82" t="inlineStr">
+      <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
-      <c r="B19" s="84" t="n">
-        <v>22</v>
-      </c>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
       <c r="D19" s="24" t="n"/>
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>62 sp</t>
+          <t>231 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
@@ -1705,14 +1708,12 @@
       <c r="O19" s="17" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="82" t="inlineStr">
+      <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
-      <c r="B20" s="84" t="n">
-        <v>10.27448312463549</v>
-      </c>
+      <c r="B20" s="26" t="n"/>
       <c r="C20" s="26" t="n"/>
       <c r="D20" s="26" t="n"/>
       <c r="E20" s="26" t="n"/>
@@ -1723,12 +1724,16 @@
       <c r="M20" s="26" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="82" t="inlineStr">
+      <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="24" t="n"/>
+      <c r="B21" s="83" t="inlineStr">
+        <is>
+          <t>6.0x5.0</t>
+        </is>
+      </c>
       <c r="C21" s="24" t="n"/>
       <c r="D21" s="24" t="n"/>
       <c r="E21" s="24" t="n"/>
@@ -1739,12 +1744,14 @@
       <c r="M21" s="24" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="82" t="inlineStr">
+      <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="26" t="n"/>
+      <c r="B22" s="83" t="n">
+        <v>1.324350972</v>
+      </c>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
       <c r="E22" s="26" t="n"/>
@@ -1755,7 +1762,7 @@
       <c r="M22" s="26" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="82" t="inlineStr">
+      <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1771,7 +1778,7 @@
       <c r="M23" s="24" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="82" t="inlineStr">
+      <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1787,7 +1794,7 @@
       <c r="M24" s="26" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="82" t="inlineStr">
+      <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1798,7 +1805,7 @@
       <c r="E25" s="24" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>390.0 V ( 390.0V )</t>
+          <t>400.0 V ( 400.0V )</t>
         </is>
       </c>
       <c r="I25" s="23" t="n"/>
@@ -1809,139 +1816,137 @@
       <c r="O25" s="2" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="81" t="inlineStr">
+      <c r="A26" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="82" t="inlineStr">
+      <c r="A27" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
       </c>
-      <c r="B27" s="83" t="inlineStr">
+      <c r="B27" s="82" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="82" t="inlineStr">
+      <c r="A28" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
       </c>
-      <c r="B28" s="83" t="n">
-        <v>0</v>
+      <c r="B28" s="82" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="82" t="inlineStr">
+      <c r="A29" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
       </c>
-      <c r="B29" s="83" t="n">
-        <v>85</v>
+      <c r="B29" s="82" t="n">
+        <v>6.157521601035993</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="82" t="inlineStr">
+      <c r="A30" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
       </c>
-      <c r="B30" s="83" t="n">
-        <v>136</v>
+      <c r="B30" s="82" t="n">
+        <v>9.85203456165759</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="82" t="inlineStr">
+      <c r="A31" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
-      <c r="B31" s="83" t="n">
-        <v>2</v>
+      <c r="B31" s="82" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="82" t="inlineStr">
+      <c r="A32" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
-      <c r="B32" s="83" t="n">
-        <v>33.99575</v>
+      <c r="B32" s="82" t="n">
+        <v>66.75537800000001</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="83" t="inlineStr"/>
-      <c r="C33" s="82" t="inlineStr">
+      <c r="B33" s="82" t="inlineStr"/>
+      <c r="C33" s="81" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="82" t="inlineStr">
+      <c r="A34" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
       </c>
+      <c r="B34" s="83" t="n">
+        <v>2.8</v>
+      </c>
       <c r="G34" s="17" t="inlineStr">
         <is>
-          <t>50 sp</t>
+          <t>193 sp</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="82" t="inlineStr">
+      <c r="A35" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
       </c>
+      <c r="B35" s="83" t="n">
+        <v>1.109828741454872</v>
+      </c>
     </row>
     <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="82" t="inlineStr">
+      <c r="A36" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B36" s="84" t="inlineStr">
-        <is>
-          <t>10.0x8.5</t>
-        </is>
-      </c>
     </row>
     <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="82" t="inlineStr">
+      <c r="A37" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B37" s="84" t="n">
-        <v>7.802024625</v>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="82" t="inlineStr">
+      <c r="A38" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="82" t="inlineStr">
+      <c r="A39" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="82" t="inlineStr">
+      <c r="A40" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1968,14 +1973,14 @@
       <c r="G49" s="15" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="85" t="inlineStr">
+      <c r="B50" s="84" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C50" s="46" t="n"/>
-      <c r="D50" s="46" t="n"/>
-      <c r="E50" s="48" t="n"/>
+      <c r="C50" s="49" t="n"/>
+      <c r="D50" s="49" t="n"/>
+      <c r="E50" s="50" t="n"/>
       <c r="F50" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -1988,14 +1993,18 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="86" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="46" t="n"/>
-      <c r="E51" s="87" t="n"/>
-      <c r="F51" s="18" t="n">
-        <v>20</v>
+      <c r="B51" s="85" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
+      </c>
+      <c r="C51" s="49" t="n"/>
+      <c r="D51" s="49" t="n"/>
+      <c r="E51" s="86" t="n"/>
+      <c r="F51" s="18" t="inlineStr">
+        <is>
+          <t>Yok</t>
+        </is>
       </c>
       <c r="G51" s="19" t="inlineStr">
         <is>
@@ -2004,14 +2013,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="85" t="inlineStr">
+      <c r="B52" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C52" s="46" t="n"/>
-      <c r="D52" s="46" t="n"/>
-      <c r="E52" s="48" t="n"/>
+      <c r="C52" s="49" t="n"/>
+      <c r="D52" s="49" t="n"/>
+      <c r="E52" s="50" t="n"/>
       <c r="F52" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2024,14 +2033,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="86" t="inlineStr">
+      <c r="B53" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C53" s="46" t="n"/>
-      <c r="D53" s="46" t="n"/>
-      <c r="E53" s="87" t="n"/>
+      <c r="C53" s="49" t="n"/>
+      <c r="D53" s="49" t="n"/>
+      <c r="E53" s="86" t="n"/>
       <c r="F53" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2044,14 +2053,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="85" t="inlineStr">
+      <c r="B54" s="84" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C54" s="46" t="n"/>
-      <c r="D54" s="46" t="n"/>
-      <c r="E54" s="48" t="n"/>
+      <c r="C54" s="49" t="n"/>
+      <c r="D54" s="49" t="n"/>
+      <c r="E54" s="50" t="n"/>
       <c r="F54" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2060,14 +2069,14 @@
       <c r="G54" s="8" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="86" t="inlineStr">
+      <c r="B55" s="85" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C55" s="46" t="n"/>
-      <c r="D55" s="46" t="n"/>
-      <c r="E55" s="87" t="n"/>
+      <c r="C55" s="49" t="n"/>
+      <c r="D55" s="49" t="n"/>
+      <c r="E55" s="86" t="n"/>
       <c r="F55" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2122,17 +2131,17 @@
     <row r="58">
       <c r="B58" s="28" t="inlineStr">
         <is>
-          <t>460.0 mm</t>
+          <t>310.0 mm</t>
         </is>
       </c>
       <c r="C58" s="29" t="inlineStr">
         <is>
-          <t>332.0 mm</t>
+          <t>175.0 mm</t>
         </is>
       </c>
       <c r="D58" s="29" t="inlineStr">
         <is>
-          <t>418.0 mm</t>
+          <t>268.0 mm</t>
         </is>
       </c>
       <c r="E58" s="29" t="inlineStr"/>
@@ -2186,27 +2195,27 @@
     <row r="61">
       <c r="B61" s="28" t="inlineStr">
         <is>
-          <t>539.0 mm</t>
+          <t>342.0 mm</t>
         </is>
       </c>
       <c r="C61" s="29" t="inlineStr">
         <is>
-          <t>324.0 mm</t>
+          <t>162.0 mm</t>
         </is>
       </c>
       <c r="D61" s="29" t="inlineStr">
         <is>
-          <t>474.0 mm</t>
+          <t>253.0 mm</t>
         </is>
       </c>
       <c r="E61" s="29" t="inlineStr">
         <is>
-          <t>459.0 mm</t>
+          <t>292.0 mm</t>
         </is>
       </c>
       <c r="F61" s="29" t="inlineStr">
         <is>
-          <t>272.0 mm</t>
+          <t>131.0 mm</t>
         </is>
       </c>
       <c r="G61" s="30" t="inlineStr">
@@ -2217,14 +2226,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2241,6 +2242,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B52:E52"/>
@@ -2266,15 +2275,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="18.33203125" customWidth="1" min="2" max="2"/>
-    <col width="9.77734375" customWidth="1" min="3" max="3"/>
-    <col width="10.88671875" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
+    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2284,10 +2293,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="88" t="n"/>
-      <c r="D1" s="88" t="n"/>
-      <c r="E1" s="88" t="n"/>
-      <c r="F1" s="89" t="n"/>
+      <c r="C1" s="87" t="n"/>
+      <c r="D1" s="87" t="n"/>
+      <c r="E1" s="87" t="n"/>
+      <c r="F1" s="88" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2296,12 +2305,12 @@
           <t>Urun Kodu</t>
         </is>
       </c>
-      <c r="C2" s="43" t="inlineStr">
+      <c r="C2" s="70" t="inlineStr">
         <is>
           <t>Cap/Kesit</t>
         </is>
       </c>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="D2" s="70" t="inlineStr">
         <is>
           <t>Agirlik</t>
         </is>
@@ -2315,16 +2324,16 @@
       </c>
       <c r="B3" s="42" t="inlineStr">
         <is>
-          <t>H010310X85PFI</t>
-        </is>
-      </c>
-      <c r="C3" s="42" t="inlineStr">
-        <is>
-          <t>10.0x8.5</t>
-        </is>
-      </c>
-      <c r="D3" s="42" t="n">
-        <v>7.802024625</v>
+          <t>H010012X80AET</t>
+        </is>
+      </c>
+      <c r="C3" s="71" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="D3" s="71" t="n">
+        <v>1.109828741454872</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2335,12 +2344,16 @@
       </c>
       <c r="B4" s="42" t="inlineStr">
         <is>
-          <t>ere</t>
-        </is>
-      </c>
-      <c r="C4" s="42" t="n"/>
-      <c r="D4" s="42" t="n">
-        <v>10.27448312463549</v>
+          <t>H0103006X50PF</t>
+        </is>
+      </c>
+      <c r="C4" s="71" t="inlineStr">
+        <is>
+          <t>6.0x5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="71" t="n">
+        <v>1.324350972</v>
       </c>
       <c r="E4" s="42" t="n"/>
       <c r="F4" s="42" t="n"/>
@@ -2349,9 +2362,17 @@
       <c r="A5" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="n"/>
-      <c r="C5" s="42" t="n"/>
-      <c r="D5" s="42" t="n"/>
+      <c r="B5" s="42" t="inlineStr">
+        <is>
+          <t>H0201001200TD</t>
+        </is>
+      </c>
+      <c r="C5" s="71" t="inlineStr">
+        <is>
+          <t>50.0 x 90.0 x 143.0</t>
+        </is>
+      </c>
+      <c r="D5" s="71" t="n"/>
       <c r="E5" s="42" t="n"/>
       <c r="F5" s="42" t="n"/>
     </row>
@@ -2359,9 +2380,21 @@
       <c r="A6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="n"/>
-      <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t>Kesme Sac</t>
+        </is>
+      </c>
+      <c r="C6" s="71" t="inlineStr">
+        <is>
+          <t>0.35 mm</t>
+        </is>
+      </c>
+      <c r="D6" s="71" t="inlineStr">
+        <is>
+          <t>36.48 kg</t>
+        </is>
+      </c>
       <c r="E6" s="42" t="n"/>
       <c r="F6" s="42" t="n"/>
     </row>
@@ -2370,8 +2403,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="42" t="n"/>
-      <c r="C7" s="42" t="n"/>
-      <c r="D7" s="42" t="n"/>
+      <c r="C7" s="71" t="n"/>
+      <c r="D7" s="71" t="n"/>
       <c r="E7" s="42" t="n"/>
       <c r="F7" s="42" t="n"/>
     </row>
@@ -2380,8 +2413,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="42" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
+      <c r="C8" s="71" t="n"/>
+      <c r="D8" s="71" t="n"/>
       <c r="E8" s="42" t="n"/>
       <c r="F8" s="42" t="n"/>
     </row>
@@ -2390,8 +2423,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
+      <c r="C9" s="71" t="n"/>
+      <c r="D9" s="71" t="n"/>
       <c r="E9" s="42" t="n"/>
       <c r="F9" s="42" t="n"/>
     </row>
@@ -2400,8 +2433,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="n"/>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
+      <c r="C10" s="71" t="n"/>
+      <c r="D10" s="71" t="n"/>
       <c r="E10" s="42" t="n"/>
       <c r="F10" s="42" t="n"/>
     </row>
@@ -2410,8 +2443,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="42" t="n"/>
-      <c r="C11" s="42" t="n"/>
-      <c r="D11" s="42" t="n"/>
+      <c r="C11" s="71" t="n"/>
+      <c r="D11" s="71" t="n"/>
       <c r="E11" s="42" t="n"/>
       <c r="F11" s="42" t="n"/>
     </row>
@@ -2420,8 +2453,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="42" t="n"/>
-      <c r="C12" s="42" t="n"/>
-      <c r="D12" s="42" t="n"/>
+      <c r="C12" s="71" t="n"/>
+      <c r="D12" s="71" t="n"/>
       <c r="E12" s="42" t="n"/>
       <c r="F12" s="42" t="n"/>
     </row>
@@ -2430,8 +2463,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="n"/>
-      <c r="C13" s="42" t="n"/>
-      <c r="D13" s="42" t="n"/>
+      <c r="C13" s="71" t="n"/>
+      <c r="D13" s="71" t="n"/>
       <c r="E13" s="42" t="n"/>
       <c r="F13" s="42" t="n"/>
     </row>
@@ -2440,8 +2473,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="42" t="n"/>
-      <c r="C14" s="42" t="n"/>
-      <c r="D14" s="42" t="n"/>
+      <c r="C14" s="71" t="n"/>
+      <c r="D14" s="71" t="n"/>
       <c r="E14" s="42" t="n"/>
       <c r="F14" s="42" t="n"/>
     </row>
@@ -2450,8 +2483,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="n"/>
-      <c r="C15" s="42" t="n"/>
-      <c r="D15" s="42" t="n"/>
+      <c r="C15" s="71" t="n"/>
+      <c r="D15" s="71" t="n"/>
       <c r="E15" s="42" t="n"/>
       <c r="F15" s="42" t="n"/>
     </row>
@@ -2460,8 +2493,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="42" t="n"/>
-      <c r="C16" s="42" t="n"/>
-      <c r="D16" s="42" t="n"/>
+      <c r="C16" s="71" t="n"/>
+      <c r="D16" s="71" t="n"/>
       <c r="E16" s="42" t="n"/>
       <c r="F16" s="42" t="n"/>
     </row>
@@ -2470,8 +2503,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="n"/>
-      <c r="C17" s="42" t="n"/>
-      <c r="D17" s="42" t="n"/>
+      <c r="C17" s="71" t="n"/>
+      <c r="D17" s="71" t="n"/>
       <c r="E17" s="42" t="n"/>
       <c r="F17" s="42" t="n"/>
     </row>
@@ -2480,8 +2513,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="n"/>
-      <c r="C18" s="42" t="n"/>
-      <c r="D18" s="42" t="n"/>
+      <c r="C18" s="71" t="n"/>
+      <c r="D18" s="71" t="n"/>
       <c r="E18" s="42" t="n"/>
       <c r="F18" s="42" t="n"/>
     </row>
@@ -2490,8 +2523,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="n"/>
-      <c r="C19" s="42" t="n"/>
-      <c r="D19" s="42" t="n"/>
+      <c r="C19" s="71" t="n"/>
+      <c r="D19" s="71" t="n"/>
       <c r="E19" s="42" t="n"/>
       <c r="F19" s="42" t="n"/>
     </row>
@@ -2500,8 +2533,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="n"/>
-      <c r="C20" s="42" t="n"/>
-      <c r="D20" s="42" t="n"/>
+      <c r="C20" s="71" t="n"/>
+      <c r="D20" s="71" t="n"/>
       <c r="E20" s="42" t="n"/>
       <c r="F20" s="42" t="n"/>
     </row>
@@ -2510,8 +2543,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="n"/>
-      <c r="C21" s="42" t="n"/>
-      <c r="D21" s="42" t="n"/>
+      <c r="C21" s="71" t="n"/>
+      <c r="D21" s="71" t="n"/>
       <c r="E21" s="42" t="n"/>
       <c r="F21" s="42" t="n"/>
     </row>
@@ -2520,8 +2553,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="n"/>
-      <c r="C22" s="42" t="n"/>
-      <c r="D22" s="42" t="n"/>
+      <c r="C22" s="71" t="n"/>
+      <c r="D22" s="71" t="n"/>
       <c r="E22" s="42" t="n"/>
       <c r="F22" s="42" t="n"/>
     </row>
@@ -2530,8 +2563,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="n"/>
-      <c r="C23" s="42" t="n"/>
-      <c r="D23" s="42" t="n"/>
+      <c r="C23" s="71" t="n"/>
+      <c r="D23" s="71" t="n"/>
       <c r="E23" s="42" t="n"/>
       <c r="F23" s="42" t="n"/>
     </row>
@@ -2540,8 +2573,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="n"/>
-      <c r="C24" s="42" t="n"/>
-      <c r="D24" s="42" t="n"/>
+      <c r="C24" s="71" t="n"/>
+      <c r="D24" s="71" t="n"/>
       <c r="E24" s="42" t="n"/>
       <c r="F24" s="42" t="n"/>
     </row>
@@ -2550,8 +2583,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="42" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="42" t="n"/>
+      <c r="C25" s="71" t="n"/>
+      <c r="D25" s="71" t="n"/>
       <c r="E25" s="42" t="n"/>
       <c r="F25" s="42" t="n"/>
     </row>
@@ -2560,8 +2593,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="42" t="n"/>
-      <c r="C26" s="42" t="n"/>
-      <c r="D26" s="42" t="n"/>
+      <c r="C26" s="71" t="n"/>
+      <c r="D26" s="71" t="n"/>
       <c r="E26" s="42" t="n"/>
       <c r="F26" s="42" t="n"/>
     </row>
@@ -2570,8 +2603,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="42" t="n"/>
-      <c r="C27" s="42" t="n"/>
-      <c r="D27" s="42" t="n"/>
+      <c r="C27" s="71" t="n"/>
+      <c r="D27" s="71" t="n"/>
       <c r="E27" s="42" t="n"/>
       <c r="F27" s="42" t="n"/>
     </row>
@@ -2580,8 +2613,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="n"/>
-      <c r="C28" s="42" t="n"/>
-      <c r="D28" s="42" t="n"/>
+      <c r="C28" s="71" t="n"/>
+      <c r="D28" s="71" t="n"/>
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
     </row>
@@ -2590,8 +2623,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="n"/>
-      <c r="C29" s="42" t="n"/>
-      <c r="D29" s="42" t="n"/>
+      <c r="C29" s="71" t="n"/>
+      <c r="D29" s="71" t="n"/>
       <c r="E29" s="42" t="n"/>
       <c r="F29" s="42" t="n"/>
     </row>
@@ -2600,8 +2633,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="42" t="n"/>
-      <c r="C30" s="42" t="n"/>
-      <c r="D30" s="42" t="n"/>
+      <c r="C30" s="71" t="n"/>
+      <c r="D30" s="71" t="n"/>
       <c r="E30" s="42" t="n"/>
       <c r="F30" s="42" t="n"/>
     </row>
@@ -2610,8 +2643,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
+      <c r="C31" s="71" t="n"/>
+      <c r="D31" s="71" t="n"/>
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
     </row>
@@ -2620,8 +2653,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
+      <c r="C32" s="71" t="n"/>
+      <c r="D32" s="71" t="n"/>
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
     </row>
@@ -2630,5 +2663,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/media/reports/oto_trifaz.xlsx
+++ b/media/reports/oto_trifaz.xlsx
@@ -909,31 +909,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="752475" cy="809625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1291,7 +1266,7 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44321.48340685934</v>
+        <v>44323.05522198114</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
@@ -1377,11 +1352,7 @@
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="53" t="inlineStr">
-        <is>
-          <t>14.429 kg</t>
-        </is>
-      </c>
+      <c r="H4" s="53" t="inlineStr"/>
       <c r="I4" s="54" t="n"/>
       <c r="J4" s="75" t="inlineStr">
         <is>
@@ -1455,11 +1426,7 @@
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="53" t="inlineStr">
-        <is>
-          <t>0.0 kg</t>
-        </is>
-      </c>
+      <c r="H6" s="53" t="inlineStr"/>
       <c r="I6" s="54" t="n"/>
       <c r="J6" s="75" t="inlineStr">
         <is>
@@ -1469,7 +1436,7 @@
       <c r="K6" s="76" t="n"/>
       <c r="L6" s="77" t="inlineStr">
         <is>
-          <t>36.48 kg(Kesme Sac)</t>
+          <t>36.484 kg(Kesme Sac)</t>
         </is>
       </c>
       <c r="O6" s="76" t="n"/>
@@ -1957,7 +1924,13 @@
     <row r="43"/>
     <row r="44"/>
     <row r="45"/>
-    <row r="46"/>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>İzolasyton Trafosu Karşılığı 6666.67'VA dir</t>
+        </is>
+      </c>
+    </row>
     <row r="47"/>
     <row r="48"/>
     <row r="49">
@@ -2225,7 +2198,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2258,6 +2231,7 @@
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B46:L46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
@@ -2392,7 +2366,7 @@
       </c>
       <c r="D6" s="71" t="inlineStr">
         <is>
-          <t>36.48 kg</t>
+          <t>36.484 kg</t>
         </is>
       </c>
       <c r="E6" s="42" t="n"/>

--- a/media/reports/oto_trifaz.xlsx
+++ b/media/reports/oto_trifaz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9348" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Rapor Sayfası'!$A$1:$O$68</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Rapor Sayfası'!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="0.000" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -554,223 +554,223 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="24" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -843,7 +843,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>5</col>
@@ -854,17 +854,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -879,17 +879,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -904,17 +904,17 @@
     <ext cx="8839200" cy="5381625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1216,30 +1216,30 @@
   </sheetPr>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.33203125" customWidth="1" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="5.6640625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="5.21875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="5.88671875" customWidth="1" style="12" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="19.88671875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="15.77734375" customWidth="1" style="12" min="8" max="8"/>
-    <col width="13.5546875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="8.5546875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="8.33203125" customWidth="1" style="12" min="11" max="11"/>
-    <col width="6.33203125" customWidth="1" style="12" min="12" max="12"/>
-    <col width="5.77734375" customWidth="1" style="12" min="13" max="13"/>
-    <col width="9" customWidth="1" style="12" min="14" max="14"/>
-    <col width="18.5546875" customWidth="1" style="12" min="15" max="15"/>
+    <col customWidth="1" max="1" min="1" width="13.33203125"/>
+    <col customWidth="1" max="2" min="2" style="12" width="7.6640625"/>
+    <col customWidth="1" max="3" min="3" style="12" width="5.6640625"/>
+    <col customWidth="1" max="4" min="4" style="12" width="5.21875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="5.88671875"/>
+    <col customWidth="1" max="6" min="6" style="12" width="8.88671875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="19.88671875"/>
+    <col customWidth="1" max="8" min="8" style="12" width="15.77734375"/>
+    <col customWidth="1" max="9" min="9" style="12" width="13.5546875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="8.5546875"/>
+    <col customWidth="1" max="11" min="11" style="12" width="8.33203125"/>
+    <col customWidth="1" max="12" min="12" style="12" width="6.33203125"/>
+    <col customWidth="1" max="13" min="13" style="12" width="5.77734375"/>
+    <col customWidth="1" max="14" min="14" style="12" width="9"/>
+    <col customWidth="1" max="15" min="15" style="12" width="18.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="1" thickBot="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Trafo Tipi :</t>
@@ -1266,11 +1266,11 @@
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
       <c r="N1" s="57" t="n">
-        <v>44323.05522198114</v>
+        <v>44343.46980887216</v>
       </c>
       <c r="O1" s="50" t="n"/>
     </row>
-    <row r="2" ht="16.2" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16.2" r="2" thickBot="1">
       <c r="A2" s="58" t="inlineStr">
         <is>
           <t>Değerler</t>
@@ -1362,7 +1362,7 @@
       <c r="K4" s="76" t="n"/>
       <c r="L4" s="77" t="inlineStr">
         <is>
-          <t>342.0 x 162.0 x 253.0</t>
+          <t>342.0 x 162.0 x 253.0 x 292.0 x 131.0</t>
         </is>
       </c>
       <c r="O4" s="76" t="n"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="O6" s="76" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="7" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Frekans :</t>
@@ -1474,10 +1474,10 @@
       <c r="N7" s="31" t="n"/>
       <c r="O7" s="33" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="8" thickBot="1">
       <c r="A8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="9" thickBot="1">
       <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Primer</t>
@@ -1652,7 +1652,7 @@
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="19">
       <c r="A19" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
@@ -1674,7 +1674,7 @@
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="20">
       <c r="A20" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
@@ -1690,7 +1690,7 @@
       <c r="L20" s="26" t="n"/>
       <c r="M20" s="26" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="21">
       <c r="A21" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
@@ -1710,7 +1710,7 @@
       <c r="L21" s="24" t="n"/>
       <c r="M21" s="24" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="22">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
@@ -1728,7 +1728,7 @@
       <c r="L22" s="26" t="n"/>
       <c r="M22" s="26" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="23">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
@@ -1744,7 +1744,7 @@
       <c r="L23" s="24" t="n"/>
       <c r="M23" s="24" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="24">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
@@ -1760,7 +1760,7 @@
       <c r="L24" s="26" t="n"/>
       <c r="M24" s="26" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="25">
       <c r="A25" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
@@ -1782,14 +1782,14 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="26">
       <c r="A26" s="80" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="27">
       <c r="A27" s="81" t="inlineStr">
         <is>
           <t>Tel :</t>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="28">
       <c r="A28" s="81" t="inlineStr">
         <is>
           <t>Cap :</t>
@@ -1811,7 +1811,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="29" thickBot="1">
       <c r="A29" s="81" t="inlineStr">
         <is>
           <t>Kesit :</t>
@@ -1821,7 +1821,7 @@
         <v>6.157521601035993</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="30" thickBot="1">
       <c r="A30" s="81" t="inlineStr">
         <is>
           <t>Akim :</t>
@@ -1831,7 +1831,7 @@
         <v>9.85203456165759</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="31" thickBot="1">
       <c r="A31" s="81" t="inlineStr">
         <is>
           <t>Kat :</t>
@@ -1841,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="32" thickBot="1">
       <c r="A32" s="81" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
@@ -1851,7 +1851,7 @@
         <v>66.75537800000001</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="33" thickBot="1">
       <c r="B33" s="82" t="inlineStr"/>
       <c r="C33" s="81" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="34" thickBot="1">
       <c r="A34" s="81" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="35" thickBot="1">
       <c r="A35" s="81" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
@@ -1884,50 +1884,50 @@
         <v>1.109828741454872</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="36" thickBot="1">
       <c r="A36" s="81" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="37" thickBot="1">
       <c r="A37" s="81" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="38" thickBot="1">
       <c r="A38" s="81" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="39" thickBot="1">
       <c r="A39" s="81" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="40" thickBot="1">
       <c r="A40" s="81" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1"/>
-    <row r="42" ht="15" customHeight="1" thickBot="1"/>
+    <row customHeight="1" ht="15" r="41" thickBot="1"/>
+    <row customHeight="1" ht="15" r="42" thickBot="1"/>
     <row r="43"/>
     <row r="44"/>
     <row r="45"/>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzolasyton Trafosu Karşılığı 6666.67'VA dir</t>
+          <t>İzolasyon Trafosu Karşılığı 6666.67'VA dir</t>
         </is>
       </c>
     </row>
@@ -2233,9 +2233,9 @@
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="B46:L46"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="58" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2254,10 +2254,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
-    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" style="25" width="19.33203125"/>
+    <col customWidth="1" max="4" min="4" style="25" width="19.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2636,7 +2636,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="256" verticalDpi="300"/>
 </worksheet>
 </file>